--- a/exemples/cryptoVirtualBase.xlsx
+++ b/exemples/cryptoVirtualBase.xlsx
@@ -220,60 +220,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,10 +464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="A5:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +545,7 @@
       <c r="C2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -556,85 +560,85 @@
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
         <v>999</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
         <v>999</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
         <v>1198.8</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
         <v>1E-010</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>999</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="12" t="n">
         <v>1E-010</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoVirtualBase.xlsx
+++ b/exemples/cryptoVirtualBase.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:N9999"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="A4:D33"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -500,7 +500,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="18" t="inlineStr">
         <is>
@@ -838,49 +838,168 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="24" t="n">
+    <row r="19" ht="12.75" customHeight="1" s="15">
+      <c r="A19" s="14" t="n">
         <v>1.0587</v>
       </c>
-      <c r="B19" s="24" t="n">
+      <c r="B19" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="inlineStr">
+      <c r="C19" s="14" t="inlineStr">
         <is>
           <t>18/11/2025</t>
         </is>
       </c>
-      <c r="D19" s="24" t="inlineStr">
+      <c r="D19" s="14" t="inlineStr">
         <is>
           <t>01:01:37</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" ht="12.75" customHeight="1" s="15">
+      <c r="A20" s="14" t="n">
         <v>1.0534</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="14" t="inlineStr">
         <is>
           <t>19/11/2025</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="14" t="inlineStr">
         <is>
           <t>19:01:50</t>
         </is>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
+    <row r="21" ht="12.75" customHeight="1" s="15">
+      <c r="A21" s="14" t="n">
+        <v>0.9909</v>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>19:01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="15">
+      <c r="A22" s="14" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="B22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>20:14:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="15">
+      <c r="A23" s="14" t="n">
+        <v>0.9762999999999999</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>07:01:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="n">
+        <v>0.9169</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="24" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D24" s="24" t="inlineStr">
+        <is>
+          <t>14:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="n">
+        <v>0.9135</v>
+      </c>
+      <c r="B25" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="24" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D25" s="24" t="inlineStr">
+        <is>
+          <t>01:00:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="n">
+        <v>0.8812</v>
+      </c>
+      <c r="B26" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="24" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D26" s="24" t="inlineStr">
+        <is>
+          <t>07:00:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.8778</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14:01:08</t>
+        </is>
+      </c>
+    </row>
     <row r="28"/>
     <row r="29"/>
     <row r="30"/>
